--- a/i18n/excel_from_translation/com.ipmwise.xlsx
+++ b/i18n/excel_from_translation/com.ipmwise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="236" documentId="11_55E0C64198D1544D8F012CB59609A5D73F03C519" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5F9D71-6FB8-4125-9790-A7A90A0A3A58}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="11_55E0C64198D1544D8F012CB59609A5D73F03C519" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C67DE8D5-649E-41B6-A6CC-4012321B407E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="114">
   <si>
     <t>KEY</t>
   </si>
@@ -163,6 +163,11 @@
     </r>
   </si>
   <si>
+    <t>Adaptez la gestion de la flore adventice à vos besoins en tant qu'agriculteur ou conseiller agricole. Décidez vous-même du niveau de lutte contre la flore adventice ou laissez-vous guider par les principes de protection intégrée d'IPMwise. Le logiciel contient des outils utiles pour adapter la stratégie de lutte à la population de mauvaises herbes dans un champ et ainsi minimiser considérablement l'utilisation d'herbicides. Le logiciel peut être utilisé pour planifier les stratégies herbicides à la parcelle, et comme un outil de planification général pour les conseillers en culture afin de trouver des mélanges d’herbicides appropriés et les doses correspondantes.
+Les principes du programme sont fondés sur les données de la relation dose-réponse tirées des études d'efficacité. Au Danemark, des travaux sont en cours pour utiliser également le logiciel d'aide à la décision IPMwise en conjonction avec l'intelligence artificielle, la reconnaissance automatique des espèces adventices et les cartes de pulvérisation.
+Cette démo a été limitée pour le nombre de cultures et d’espèces adventices par rapport à la version danoise complète.</t>
+  </si>
+  <si>
     <t>Personalizzate la gestione delle infestanti secondo le vostre esigenze di agricoltori professionisti o di consulenti colturali. Decidete voi stessi il livello di controllo delle infestanti 
 o lasciatevi guidare dai principi IPM integrati di IPMwise. Il software contiene strumenti utili per adattare lo sforzo contro le infestanti alla 
 popolazione attuale di erbe infestanti in un campo e quindi ridurre notevolmente l'uso di erbicidi. Il software può essere utilizzato per pianificare gli sforzi 
@@ -172,6 +177,9 @@
 Questa demo è stata limitata per quanto riguarda il numero di colture e infestanti rispetto alla versione completa danese.</t>
   </si>
   <si>
+    <t>Προσαρμόστε τη διαχείριση ζιζανίων στις ανάγκες σας ως επαγγελματίας αγρότης ή σύμβουλος καλλιεργειών. Αποφασίστε μόνοι σας το επίπεδο ελέγχου των ζιζανίων ή αφήστε τις ενσωματωμένες αρχές IPM του IPMwise να σας καθοδηγήσουν. Το πρόγραμμα περιέχει χρήσιμα εργαλεία για την προσαρμογή της προσπάθειας κατά των ζιζανίων στις τρέχοντα πληθυσμό ζιζανίων σε έναν αγρό και έτσι να ελαχιστοποιήσετε σημαντικά τη χρήση ζιζανιοκτόνων. Το πρόγραμμα μπορεί να χρησιμοποιηθεί για τον προγραμματισμό ζιζανιοκτόνων προσπαθειών τόσο σε επίπεδο αγρού όσο και ως γενικό εργαλείο σχεδιασμού για τους συμβούλους καλλιέργειας για την εύρεση κατάλληλων μιγμάτων δεξαμενών και αντίστοιχων δόσεων. Οι αρχές του προγράμματος βασίζονται σε δεδομένα απόκρισης δόσης που προέρχονται από εκθέσεις αποτελεσματικότητας. Στη Δανία, διεξάγονται επί του παρόντος εργασίες για χρήση του προγράμματος σε συνδυασμό με τεχνητή νοημοσύνη, αυτόματη αναγνώριση ζιζανίων και χάρτες ψεκασμού.</t>
+  </si>
+  <si>
     <t>com.ipmwise.4.models.ipmwiseDEMO.name</t>
   </si>
   <si>
@@ -199,9 +207,15 @@
     <t>IPMwise demo versija</t>
   </si>
   <si>
+    <t>Version de démonstration d'IPMwise</t>
+  </si>
+  <si>
     <t>IPMWise versione demo</t>
   </si>
   <si>
+    <t>Έκδοση επίδειξης IPMwise</t>
+  </si>
+  <si>
     <t>com.ipmwise.4.models.ipmwiseDEMO.purpose</t>
   </si>
   <si>
@@ -232,7 +246,13 @@
     <t>Piktžolių kontrolės patarimai</t>
   </si>
   <si>
+    <t>Conseils pour le traitement des mauvaises herbes</t>
+  </si>
+  <si>
     <t>Consigli per il trattamento delle erbe infestanti</t>
+  </si>
+  <si>
+    <t>Συμβουλές αντιμετώπισης ζιζανίων</t>
   </si>
   <si>
     <t>com.ipmwise.4.models.ipmwiseDK.description</t>
@@ -261,6 +281,9 @@
 het programma ook te gebruiken in combinatie met kunstmatige intelligentie, automatische onkruidherkenning en spuitkaarten.</t>
   </si>
   <si>
+    <t>Prilagodite obvladovanje plevela svojim potrebam. Sami se odločite o stopnji zatiranja plevela, ali pa se prepustite vgrajenim načelom IPMwise. Programska oprema vsebuje uporabna orodja, s katerimi lahko ukrep proti plevelu prilagodite trenutni stopnji zapleveljenosti in tako znatno zmanjšate uporabo herbicidov. Programsko opremo lahko uporabite za načrtovanje tretiranja s herbicidi tako na ravni polja ali kot splošno orodje za načrtovanje primerne škropilne mešanice in ustrezne odmerke za kmetijske svetovalce. Načela orodja temeljijo na podatkih o odzivu na odmerek, pridobljenih iz poročil o učinkovitosti. Na Danskem trenutno poteka delo za uporabo sistema za podporo odločanju IPMwise v povezavi z umetno inteligenco, samodejnim prepoznavanjem plevela in zemljevidi škropljenja.</t>
+  </si>
+  <si>
     <t>Anpassa ogräshanteringen efter dina behov som professionell lantbrukare eller rådgivare. Bestäm själv nivån på ogräsbekämpning eller låt de inbyggda IPM-principerna i IPMwise vägleda dig. Programvaran innehåller användbara verktyg för att anpassa ogräsbekämpningen till den aktuella ogräspopulationen i ett fält och därmed en minimerad användning av herbicider. Programvaran kan användas för att planera herbicidinsatser på både fältnivå och som ett allmänt planeringsverktyg för rådgivare för att hitta lämpliga tankblandningar och motsvarande doser. Principerna för programmet är baserade på dos-responsdata som härrör från effektförsök. I Danmark pågår för närvarande arbetet med att även använda beslutsstödsprogrammet IPMwise i kombination med artificiell intelligens, automatisk ogräsigenkänning och bekämpningskartor.</t>
   </si>
   <si>
@@ -273,6 +296,10 @@
 </t>
   </si>
   <si>
+    <t>Adaptez la gestion de la flore adventice à vos besoins en tant qu'agriculteur ou conseiller agricole. Décidez vous-même du niveau de lutte contre la flore adventice ou laissez-vous guider par les principes de protection intégrée d'IPMwise. Le logiciel contient des outils utiles pour adapter la stratégie de lutte à la population de mauvaises herbes dans un champ et ainsi minimiser considérablement l'utilisation d'herbicides. Le logiciel peut être utilisé pour planifier les stratégies herbicides à la parcelle, et comme un outil de planification général pour les conseillers en culture afin de trouver des mélanges d’herbicides appropriés et les doses correspondantes.
+Les principes du programme sont fondés sur les données de la relation dose-réponse tirées des études d'efficacité. Au Danemark, des travaux sont en cours pour utiliser également le logiciel d'aide à la décision IPMwise en conjonction avec l'intelligence artificielle, la reconnaissance automatique des espèces adventices et les cartes de pulvérisation.</t>
+  </si>
+  <si>
     <t>Personalizzate la gestione delle infestanti secondo le vostre esigenze di agricoltori professionisti o di consulenti colturali. Decidete voi stessi il livello di controllo delle infestanti 
 o lasciatevi guidare dai principi IPM integrati di IPMwise. Il programma contiene strumenti utili per adattare lo sforzo contro le infestanti alla 
 popolazione attuale di erbe infestanti in un campo e quindi ridurre notevolmente l'uso di erbicidi. Il programma può essere utilizzato per pianificare gli sforzi 
@@ -293,13 +320,25 @@
     <t>IPMwise Denemarken</t>
   </si>
   <si>
+    <t>IPMwise Danska</t>
+  </si>
+  <si>
     <t>IPMwise Tanska</t>
   </si>
   <si>
+    <t>IPMwise Danemark</t>
+  </si>
+  <si>
     <t>IPMwise Danimarca</t>
   </si>
   <si>
+    <t>IPMwise Δανία</t>
+  </si>
+  <si>
     <t>com.ipmwise.4.models.ipmwiseDK.purpose</t>
+  </si>
+  <si>
+    <t>Svetovanje glede zatiranja plevelov</t>
   </si>
   <si>
     <t>Råd om ugrasbekjempelse</t>
@@ -336,6 +375,9 @@
 simulare la possibilità di controllare le infestazioni prima o dopo l'ora corrente.</t>
   </si>
   <si>
+    <t xml:space="preserve">Προσαρμόστε τη διαχείριση των ζιζανίων στις ανάγκες σας ως επαγγελματίας αγρότης ή σύμβουλος καλλιέργειας. Αποφασίστε μόνοι σας το επίπεδο ελέγχου των ζιζανίων ή χρησιμοποιήστε την ενότητα IPMwise που βασίζεται στη IPM για να σας καθοδηγήσει.  Βασικά χαρακτηριστικά: Τα ενσωματωμένα εργαλεία στο IPMWise μπορούν να σας βοηθήσουν στο σχεδιασμό και τη λήψη απόφασης για τις τις καλύτερες στρατηγικές ελέγχου ζιζανίων για την εκμετάλλευσή σας. Μπορείτε να προσομοιώσετε τον τρόπο με τον οποίο διαφορετικές συνθήκες στο αγροτεμάχιοσυνθήκες επηρεάζουν την ανάγκη για έλεγχο και τα διαθέσιμα εργαλεία. συνθήκες επηρεάζουν την ανάγκη για έλεγχο και τα διαθέσιμα εργαλεία. Σε περίπτωση που δεν έχετε συγκεκριμένες συστάσεις για τον έλεγχο των ζιζανίων σας σε οποιαδήποτε δεδομένη στιγμή, το IPMWise σας επιτρέπει να προσομοιώσετε αν σε προγενέστερες ή μεταγενέστερες προσομοιώσει εάν σε χρονικές στιγμές πριν ή μετά την τρέχουσα χρονική στιγμή είναι δυνατόν να ελέγξετε τις προσβολές των ζιζανίων σας.  </t>
+  </si>
+  <si>
     <t>com.ipmwise.4.models.ipmwiseES.name</t>
   </si>
   <si>
@@ -348,10 +390,16 @@
     <t>IPMwise Spanje</t>
   </si>
   <si>
+    <t>IPMwise Španija</t>
+  </si>
+  <si>
     <t>IPMwise Spania</t>
   </si>
   <si>
     <t>IPMwise Spagna</t>
+  </si>
+  <si>
+    <t>IPMwise Ισπανία</t>
   </si>
   <si>
     <t>com.ipmwise.4.models.ipmwiseES.purpose</t>
@@ -380,6 +428,9 @@
     <t>VIPS-Ugras 2.0 is een nieuwe versie van VIPS-Ugras. IPM Consult heeft het systeem ontwikkeld, dat in het Deens IPMwise heet. Het is aangepast aan de Noorse omstandigheden door het Noorse Instituut voor bio-economie (NIBIO) in samenwerking met Norsk Landbruksrådgiving (NLR). Er zijn nieuwe berekeningen en aanpassingen gedaan, maar het bevat grotendeels dezelfde inhoud als het oude VIPS-Ugras. VIPS-Ugras 2.0 vereist inloggen. Het voordeel van inloggen is dat het systeem uw diensten kan onthouden. Het systeem is gratis in Noorwegen. U kunt ervoor kiezen om gebruik maken van vooraf ingevoerde uitgangseisen of uw eigen uitgangseisen te kiezen. Voor een optimale gewasbeschermingsoplossing voor de meeste omstandigheden raden wij u aan de uitgangseisen van het systeem te gebruiken.</t>
   </si>
   <si>
+    <t>VIPS-Ugras 2.0 je nova različica VIPS-Ugras. IPM Consult je razvil sistem, ki se v danščini imenuje IPMwise. Norveškim razmeram ga je prilagodil Norveški inštitut za bioekonomijo (NIBIO) v sodelovanju z Norveško kmetijsko svetovalno službo (NLR). Obstajajo novi izračuni in prilagoditve, vendar je vsebina skoraj enaka starim VIPS-Ugras. VIPS-Ugras 2.0 zahteva prijavo. Prednost prijave je, da si sistem lahko zapomni vaše podatke. Sistem je na Norveškem brezplačen. Lahko se odločite za uporabo že pripravljenih zahtev glede porabe energije ali izberete lastne zahteve glede porabe energije. Za optimalno rešitev za zaščito rastlin za večino pogojev priporočamo, da uporabite sistemske zahteve za napajanje</t>
+  </si>
+  <si>
     <t xml:space="preserve">IPS-Ugras 2.0 er en ny versjon av VIPS-ugras. IPM Consult har utviklet systemet og som på dansk heter IPMwise. 
 Det er tilpasset norske forhold av Norsk institutt for bioøkonomi (NIBIO) i samarbeid med Norsk Landbruksrådgiving (NLR). 
 Det er nye beregninger og tilpasninger, men det er mye det samme innholdet som gamle VIPS-Ugras. VIPS-Ugras 2.0 krever 
@@ -392,6 +443,9 @@
     <t xml:space="preserve">VIPS-Ugras 2.0 är en ny version av VIPS-ugras. IPM Consult har utvecklat systemet som heter IPMwise på danska. Systemet har anpassats till norska förhållanden av Norsk institutt for bioøkonomi (NIBIO) i samarbete med Norsk Landbruksrådgiving (NLR). Det finns nya beräkningar och anpassningar men det är huvudsakligen samma innehåll som i gamla VIPS-Ugras. VIPS-Ugras 2.0 kräver inlogging. Fördelen med inlogging är att systemet kommer ihåg dina fält. Systemet är gratis i Norge. Du kan välja att använda redan inlagda effektkrav eller välja dina egna effektkrav. För en optimal växtskyddslösning för de flesta förhållanden rekommenderar vi att du använder systemets effektkrav.  </t>
   </si>
   <si>
+    <t>Το VIPS-Ugras 2.0 είναι μια νέα έκδοση του VIPS-Ugras. Η IPM Consult έχει αναπτύξει το σύστημα, το οποίο στα δανικά ονομάζεται IPMwise.</t>
+  </si>
+  <si>
     <t>com.ipmwise.4.models.ipmwiseNO.name</t>
   </si>
   <si>
@@ -407,10 +461,16 @@
     <t>VIPS-ugras Noorwegen</t>
   </si>
   <si>
+    <t>IPMwise Norveška</t>
+  </si>
+  <si>
     <t>VIPS rikkakasvit Norja</t>
   </si>
   <si>
     <t>VIPS-ugras Norvegia</t>
+  </si>
+  <si>
+    <t>VIPS-ugras Νορβηγία</t>
   </si>
   <si>
     <t>com.ipmwise.4.models.ipmwiseNO.purpose</t>
@@ -478,7 +538,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +569,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -537,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -569,9 +635,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -909,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,6 +1059,9 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
@@ -995,7 +1071,13 @@
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1008,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1018,6 +1100,7 @@
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="3"/>
     <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="13" max="13" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1101,78 +1184,96 @@
       <c r="J2" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="K2" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="L2" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1184,8 +1285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,6 +1297,7 @@
     <col min="3" max="5" width="9.140625" style="3"/>
     <col min="7" max="8" width="9.140625" style="3"/>
     <col min="10" max="10" width="67.5703125" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1249,89 +1352,116 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1343,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1352,7 +1482,9 @@
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1407,80 +1539,98 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1492,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1501,6 +1651,7 @@
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="3"/>
     <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="13" max="13" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1555,83 +1706,101 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>91</v>
+        <v>109</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>113</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1900,6 +2069,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
@@ -1912,23 +2090,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C13D7883-C850-414D-BBE1-60F75C0B0460}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{114496BE-FF0D-4344-9601-E9753EA45CDF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D73CD7-F95E-4F1B-858D-57E2D7CABB38}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D73CD7-F95E-4F1B-858D-57E2D7CABB38}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{114496BE-FF0D-4344-9601-E9753EA45CDF}"/>
 </file>